--- a/biology/Médecine/Officier_de_santé/Officier_de_santé.xlsx
+++ b/biology/Médecine/Officier_de_santé/Officier_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Officier_de_sant%C3%A9</t>
+          <t>Officier_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Officier de santé » désignait en France à partir du 10 mars 1803, une personne qui exerçait la profession médicale sans le titre de docteur en médecine.
-Ce titre désignait aussi les médecins militaires en tant qu'officiers de service de santé selon un sens qui est progressivement sorti de l'usage[1] et qui est source d'une certaine confusion.
+Ce titre désignait aussi les médecins militaires en tant qu'officiers de service de santé selon un sens qui est progressivement sorti de l'usage et qui est source d'une certaine confusion.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Officier_de_sant%C3%A9</t>
+          <t>Officier_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les décrets des 28 juin et 8 juillet 1793 relatifs « à l’organisation des secours à accorder annuellement aux enfants, aux vieillards et aux indigents » vont créer un corps d'officiers de santé[2]. Le texte précise qu'« il sera établi près de chaque agence un officier de santé chargé du soin de visiter à domicile et gratuitement tous les individus secourus par la nation, d’après la liste qui lui sera remise annuellement par l’agence. »
-Cette disposition très « moderne »[3], mais qui a permis la pratique de la médecine sans distinction de diplôme[4], va induire une confusion au sein de la population et faire progresser la désertification médicale des campagnes et le charlatanisme[5]. 
-La loi du 19 ventôse an XI (10 mars 1803) va remettre de l'ordre et crée deux niveaux dans les professions de santé : celui des médecins et chirurgiens diplômés de la Faculté et celui des officiers de santé, appelés "second ordre". Ce dernier grade était ouvert à des praticiens qui ne possédaient pas le baccalauréat mais qui avaient fait valider leur pratique par un jury départemental remplacé ensuite par un jury universitaire[6]. Cette loi de 1803 relative à la médecine est un compromis entre l’Ancien Régime et la Révolution[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les décrets des 28 juin et 8 juillet 1793 relatifs « à l’organisation des secours à accorder annuellement aux enfants, aux vieillards et aux indigents » vont créer un corps d'officiers de santé. Le texte précise qu'« il sera établi près de chaque agence un officier de santé chargé du soin de visiter à domicile et gratuitement tous les individus secourus par la nation, d’après la liste qui lui sera remise annuellement par l’agence. »
+Cette disposition très « moderne », mais qui a permis la pratique de la médecine sans distinction de diplôme, va induire une confusion au sein de la population et faire progresser la désertification médicale des campagnes et le charlatanisme. 
+La loi du 19 ventôse an XI (10 mars 1803) va remettre de l'ordre et crée deux niveaux dans les professions de santé : celui des médecins et chirurgiens diplômés de la Faculté et celui des officiers de santé, appelés "second ordre". Ce dernier grade était ouvert à des praticiens qui ne possédaient pas le baccalauréat mais qui avaient fait valider leur pratique par un jury départemental remplacé ensuite par un jury universitaire. Cette loi de 1803 relative à la médecine est un compromis entre l’Ancien Régime et la Révolution.
 « [N]ul ne peut [après la loi du la loi du 19 ventôse,] exercer la médecine ou la chirurgie sans avoir été reçu docteur. Sauf dans les campagnes déshéritées où les « officiers de santé » créés comme palliatif pratiquent avec un bonheur inégal jusqu’en 1892. »
-— Jean-François Lemaire[8]
-Ils ne purent, jusqu’en 1855, pratiquer la médecine que dans le département où ils avaient reçu leur diplôme[9].
-Ils n’avaient pas le droit d’effectuer certains actes et ne pouvaient pas avoir accès aux fonctions de médecin hospitalier ou d’expert[6].
-L’officiat de santé fut aboli en 1892[9] - c'est le cas dès les années 1870 en Moselle annexée par l'Allemagne, même si les officiers de santé déjà en exercice ont pu continuer à exercer, le dernier étant mort en 1902[10]. On continua d'utiliser le terme chez les militaires. 
+— Jean-François Lemaire
+Ils ne purent, jusqu’en 1855, pratiquer la médecine que dans le département où ils avaient reçu leur diplôme.
+Ils n’avaient pas le droit d’effectuer certains actes et ne pouvaient pas avoir accès aux fonctions de médecin hospitalier ou d’expert.
+L’officiat de santé fut aboli en 1892 - c'est le cas dès les années 1870 en Moselle annexée par l'Allemagne, même si les officiers de santé déjà en exercice ont pu continuer à exercer, le dernier étant mort en 1902. On continua d'utiliser le terme chez les militaires. 
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Officier_de_sant%C3%A9</t>
+          <t>Officier_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Personnages célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Émile Bégin (1802-1888), officier de santé, lui-même fils d'un officier de santé, puis médecin et historien.
 Jean-Baptiste Marc Bourgery (1797-1849), élève de Laennec, officier de santé, puis médecin et anatomiste célèbre.
@@ -567,7 +583,7 @@
 Jean-Baptiste Lelièvre (1819-1886), député d'Ille-et-Vilaine de 1885 à 1886.
 René Primevère Lesson (1794-1849), avant de devenir pharmacien et chirurgien.
 Joseph-François Malgaigne (1806-1865), petit-fils d'un chirurgien, fils d'un officier de santé, officier de santé, puis chirurgien.
-Ladislas-François Mirbeau, père d'Octave Mirbeau[11].
+Ladislas-François Mirbeau, père d'Octave Mirbeau.
 Victor Noyer (1795-1860) — maire de Vichy en 1853 — avant de soutenir sa thèse de médecine.
 Odilon Lannelongue (1840-1911), médecin et chirurgien, fils d'un officier de santé.
 Paul Jean Rigollot, petit-fils d'un officier de santé, inventeur du « papier Rigollot », cataplasme à base de farine de moutarde (sinapisme).
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Officier_de_sant%C3%A9</t>
+          <t>Officier_de_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Personnages de fiction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charles Bovary, le mari de Madame Bovary dans le roman de Gustave Flaubert, est un officier de santé.</t>
         </is>
